--- a/automation/Automation_TestEffort.xlsx
+++ b/automation/Automation_TestEffort.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Test_Docs\Effort_Estimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M9010714\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5790" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="182">
   <si>
     <t>Component</t>
   </si>
@@ -890,6 +890,50 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -923,61 +967,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,27 +1277,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="38" t="s">
         <v>125</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1305,9 +1305,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="15" t="s">
         <v>70</v>
       </c>
@@ -1317,9 +1317,9 @@
       <c r="F2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1558,7 +1558,9 @@
       <c r="F13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7"/>
       <c r="J13" s="2"/>
@@ -1625,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>131</v>
@@ -1936,25 +1938,25 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23">
         <v>9</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="23">
         <v>6</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="23">
         <v>5</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2013,38 +2015,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="15" t="s">
         <v>70</v>
       </c>
@@ -2054,9 +2056,9 @@
       <c r="G2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="23"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2631,12 +2633,12 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="17">
         <f>SUM(E3:E28)</f>
         <v>163</v>
@@ -2695,34 +2697,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="15" t="s">
         <v>70</v>
       </c>
@@ -2732,9 +2734,9 @@
       <c r="F2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3188,34 +3190,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="15" t="s">
         <v>70</v>
       </c>
@@ -3225,9 +3227,9 @@
       <c r="F2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -3293,7 +3295,7 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="48" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3312,7 +3314,7 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
@@ -3329,7 +3331,7 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="4" t="s">
         <v>75</v>
       </c>
@@ -3346,7 +3348,7 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
@@ -3365,7 +3367,7 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3382,7 +3384,7 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="4" t="s">
         <v>78</v>
       </c>
@@ -3399,7 +3401,7 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="4" t="s">
         <v>79</v>
       </c>
@@ -3418,7 +3420,7 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="4" t="s">
         <v>80</v>
       </c>
@@ -3437,7 +3439,7 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="4" t="s">
         <v>81</v>
       </c>
@@ -3454,7 +3456,7 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="4" t="s">
         <v>82</v>
       </c>
@@ -3471,7 +3473,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="4" t="s">
         <v>83</v>
       </c>
@@ -3526,7 +3528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -3542,528 +3544,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="49" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="45">
-        <v>3</v>
-      </c>
-      <c r="E3" s="45">
-        <v>3</v>
-      </c>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30">
+        <v>3</v>
+      </c>
+      <c r="F3" s="30">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="45">
-        <v>2</v>
-      </c>
-      <c r="E4" s="45">
-        <v>2</v>
-      </c>
-      <c r="F4" s="45">
+      <c r="D4" s="30">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2</v>
+      </c>
+      <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="45">
-        <v>3</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30">
         <v>5</v>
       </c>
-      <c r="F5" s="45">
-        <v>2</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="45">
-        <v>3</v>
-      </c>
-      <c r="E6" s="45">
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30">
         <v>1</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="30">
         <v>4</v>
       </c>
-      <c r="E7" s="45">
-        <v>2</v>
-      </c>
-      <c r="F7" s="45">
-        <v>2</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="E7" s="30">
+        <v>2</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="30">
         <v>4</v>
       </c>
-      <c r="E8" s="45">
-        <v>2</v>
-      </c>
-      <c r="F8" s="45">
+      <c r="E8" s="30">
+        <v>2</v>
+      </c>
+      <c r="F8" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="45">
-        <v>2</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="D9" s="30">
+        <v>2</v>
+      </c>
+      <c r="E9" s="30">
         <v>1</v>
       </c>
-      <c r="F9" s="45">
-        <v>2</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
+      <c r="F9" s="30">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="45">
-        <v>2</v>
-      </c>
-      <c r="E10" s="45">
-        <v>3</v>
-      </c>
-      <c r="F10" s="45">
-        <v>3</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
+      <c r="D10" s="30">
+        <v>2</v>
+      </c>
+      <c r="E10" s="30">
+        <v>3</v>
+      </c>
+      <c r="F10" s="30">
+        <v>3</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="45">
-        <v>2</v>
-      </c>
-      <c r="E13" s="45">
-        <v>2</v>
-      </c>
-      <c r="F13" s="45">
+      <c r="D13" s="30">
+        <v>2</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2</v>
+      </c>
+      <c r="F13" s="30">
         <v>4</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="30">
         <v>5</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="30">
         <v>5</v>
       </c>
-      <c r="F17" s="45">
-        <v>3</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="F17" s="30">
+        <v>3</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="45">
-        <v>2</v>
-      </c>
-      <c r="E18" s="45">
-        <v>2</v>
-      </c>
-      <c r="F18" s="45">
+      <c r="D18" s="30">
+        <v>2</v>
+      </c>
+      <c r="E18" s="30">
+        <v>2</v>
+      </c>
+      <c r="F18" s="30">
         <v>1</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="45">
-        <v>2</v>
-      </c>
-      <c r="E23" s="45">
+      <c r="D23" s="30">
+        <v>2</v>
+      </c>
+      <c r="E23" s="30">
         <v>1</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="30">
         <v>1</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="45">
-        <v>2</v>
-      </c>
-      <c r="E24" s="45">
-        <v>2</v>
-      </c>
-      <c r="F24" s="45">
-        <v>3</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="D24" s="30">
+        <v>2</v>
+      </c>
+      <c r="E24" s="30">
+        <v>2</v>
+      </c>
+      <c r="F24" s="30">
+        <v>3</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
